--- a/Aprendi_a_Ultilizar_Funcao_SE.xlsx
+++ b/Aprendi_a_Ultilizar_Funcao_SE.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Codigos\Excel projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FFF759-C988-458A-BC25-CD3ADF737AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB832C6A-0A92-4AFC-9438-C29E44A20002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Função SE" sheetId="1" r:id="rId1"/>
     <sheet name="Função SE com Célula Fixa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +170,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF93D39E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <u/>
       <sz val="11"/>
@@ -234,11 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,17 +267,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -314,96 +371,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,89 +701,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="L11" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="5" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="5"/>
+    <col min="3" max="3" width="10.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>24</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <f>C5-E5</f>
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="5" t="str">
         <f>IF(E5&gt;C5,"Erro","Ok")</f>
         <v>Ok</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>245</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>246</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G11" si="0">C6-E6</f>
         <v>-1</v>
       </c>
-      <c r="I6" s="7" t="str">
+      <c r="I6" s="5" t="str">
         <f t="shared" ref="I6:I11" si="1">IF(E6&gt;C6,"Erro","Ok")</f>
         <v>Erro</v>
       </c>
@@ -828,20 +795,20 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>23</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>30</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>-7</v>
       </c>
-      <c r="I7" s="7" t="str">
+      <c r="I7" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Erro</v>
       </c>
@@ -853,20 +820,20 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>25</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>25</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
@@ -878,84 +845,84 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>5623</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>5623</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="str">
+      <c r="I9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>53</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>54</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I10" s="7" t="str">
+      <c r="I10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Erro</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>32</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>30</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I11" s="7" t="str">
+      <c r="I11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Ok</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="8"/>
+      <c r="I12" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I11">
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Erro">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Erro">
       <formula>NOT(ISERROR(SEARCH("Erro",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Erro">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Erro">
       <formula>NOT(ISERROR(SEARCH("Erro",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Ok">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Ok">
       <formula>NOT(ISERROR(SEARCH("Ok",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -968,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,132 +950,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>20500</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>19600</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="13">
+        <f>B6-C6</f>
+        <v>900</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="str">
+        <f>IF(E6&gt;=$B$3,"Lucro","Prejuízo")</f>
+        <v>Prejuízo</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>21755</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>13400</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="13">
+        <f t="shared" ref="E7:E11" si="0">B7-C7</f>
+        <v>8355</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="str">
+        <f t="shared" ref="G7:G11" si="1">IF(E7&gt;=$B$3,"Lucro","Prejuízo")</f>
+        <v>Lucro</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>14755</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>12125</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>2630</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Prejuízo</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>29800</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>13400</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>16400</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Lucro</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>29600</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>32400</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>-2800</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Prejuízo</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="12">
         <v>13400</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>10400</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Lucro</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1127,6 +1130,17 @@
       <c r="G17" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Prejuízo">
+      <formula>NOT(ISERROR(SEARCH("Prejuízo",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Lucro">
+      <formula>NOT(ISERROR(SEARCH("Lucro",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Lucro">
+      <formula>NOT(ISERROR(SEARCH("Lucro",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
